--- a/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 22,42</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 36,62</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 23,06</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 30,07</t>
+          <t>0,0; 57,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,36; 35,42</t>
+          <t>0,0; 71,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 36,13</t>
+          <t>22,81; 82,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 22,02</t>
+          <t>0,0; 40,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 32,26</t>
+          <t>0,0; 56,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,48</t>
+          <t>14,09; 58,52</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>15,87%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 31,86</t>
+          <t>4,91; 22,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 31,05</t>
+          <t>13,91; 36,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 39,4</t>
+          <t>8,09; 23,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 18,34</t>
+          <t>9,96; 30,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 25,02</t>
+          <t>13,36; 35,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 30,56</t>
+          <t>7,31; 36,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 22,37</t>
+          <t>9,22; 22,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 23,72</t>
+          <t>16,33; 32,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 29,4</t>
+          <t>10,2; 24,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>18,1%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>3,47; 19,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>8,3; 31,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>7,69; 36,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,92</t>
+          <t>1,81; 15,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,93</t>
+          <t>1,92; 18,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 82,8</t>
+          <t>9,93; 29,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,89</t>
+          <t>3,6; 13,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,59</t>
+          <t>6,85; 21,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 58,52</t>
+          <t>11,24; 29,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 19,22</t>
+          <t>11,93; 31,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 31,4</t>
+          <t>7,46; 31,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 36,36</t>
+          <t>14,63; 39,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 15,61</t>
+          <t>3,16; 18,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 18,3</t>
+          <t>5,36; 25,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,93; 29,12</t>
+          <t>7,9; 30,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,88</t>
+          <t>9,27; 22,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 21,17</t>
+          <t>8,44; 23,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 29,42</t>
+          <t>13,48; 29,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,92</t>
+          <t>0,0; 58,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,93</t>
+          <t>0,0; 71,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,89</t>
+          <t>0,0; 44,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,59</t>
+          <t>0,0; 56,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 33,02</t>
+          <t>9,89; 33,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 42,58</t>
+          <t>10,02; 42,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 48,7</t>
+          <t>10,83; 46,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 30,95</t>
+          <t>7,27; 30,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 41,64</t>
+          <t>8,1; 42,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 34,02</t>
+          <t>5,62; 32,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,38; 27,97</t>
+          <t>10,87; 27,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 33,84</t>
+          <t>11,21; 34,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 35,08</t>
+          <t>11,45; 36,02</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 22,42</t>
+          <t>4,89; 22,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 36,62</t>
+          <t>16,01; 36,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 23,06</t>
+          <t>8,81; 24,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 30,07</t>
+          <t>10,19; 30,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 35,42</t>
+          <t>14,99; 35,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 36,13</t>
+          <t>7,39; 34,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 22,02</t>
+          <t>9,13; 23,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 32,26</t>
+          <t>17,11; 31,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,48</t>
+          <t>10,2; 25,51</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 19,22</t>
+          <t>3,5; 20,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 31,4</t>
+          <t>8,52; 32,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 36,36</t>
+          <t>7,05; 38,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 15,61</t>
+          <t>1,8; 15,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 18,3</t>
+          <t>1,91; 18,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 29,12</t>
+          <t>10,14; 29,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,88</t>
+          <t>3,73; 14,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 21,17</t>
+          <t>6,61; 21,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 29,42</t>
+          <t>11,23; 29,77</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,93; 31,86</t>
+          <t>12,0; 32,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 31,05</t>
+          <t>7,2; 31,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 39,4</t>
+          <t>15,14; 39,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 18,34</t>
+          <t>3,27; 17,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 25,02</t>
+          <t>5,87; 24,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 30,56</t>
+          <t>7,61; 30,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 22,37</t>
+          <t>9,43; 23,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 23,72</t>
+          <t>8,63; 24,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,48; 29,4</t>
+          <t>13,77; 30,06</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,32</t>
+          <t>10,24; 20,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,75; 26,83</t>
+          <t>14,5; 26,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,42; 25,54</t>
+          <t>13,28; 25,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 16,92</t>
+          <t>8,27; 16,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 22,82</t>
+          <t>11,93; 23,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,54; 25,81</t>
+          <t>14,05; 25,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 17,31</t>
+          <t>10,74; 17,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,79</t>
+          <t>14,61; 23,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,0; 23,46</t>
+          <t>14,72; 23,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,39 +700,39 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,46</t>
+          <t>0,0; 59,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,88</t>
+          <t>0,0; 74,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 82,8</t>
+          <t>26,78; 85,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,2</t>
+          <t>0,0; 42,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,41</t>
+          <t>0,0; 53,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 58,52</t>
+          <t>13,69; 59,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 33,97</t>
+          <t>8,64; 32,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 42,11</t>
+          <t>8,26; 40,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 46,75</t>
+          <t>11,39; 49,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 30,59</t>
+          <t>5,47; 29,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 42,22</t>
+          <t>7,76; 40,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 32,31</t>
+          <t>5,29; 32,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 27,86</t>
+          <t>9,91; 26,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 34,54</t>
+          <t>12,15; 34,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 36,02</t>
+          <t>11,35; 34,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 22,37</t>
+          <t>5,06; 21,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 36,27</t>
+          <t>14,57; 38,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,81; 24,03</t>
+          <t>8,72; 23,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 30,87</t>
+          <t>10,21; 30,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,99; 35,35</t>
+          <t>14,27; 35,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 34,38</t>
+          <t>8,01; 36,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 23,06</t>
+          <t>9,8; 22,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 31,94</t>
+          <t>16,91; 32,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 25,51</t>
+          <t>9,89; 24,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 20,8</t>
+          <t>3,54; 20,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 32,87</t>
+          <t>8,67; 32,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 38,55</t>
+          <t>7,49; 41,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 15,79</t>
+          <t>1,83; 15,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 18,04</t>
+          <t>1,89; 18,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 29,81</t>
+          <t>10,04; 30,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 14,82</t>
+          <t>3,53; 14,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 21,53</t>
+          <t>6,94; 21,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 29,77</t>
+          <t>11,51; 29,47</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 32,94</t>
+          <t>11,75; 32,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 31,87</t>
+          <t>7,53; 31,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 39,39</t>
+          <t>13,98; 39,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 17,93</t>
+          <t>3,13; 18,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 24,98</t>
+          <t>5,51; 25,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,61; 30,02</t>
+          <t>8,31; 29,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 23,44</t>
+          <t>9,44; 22,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 24,08</t>
+          <t>7,99; 23,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,77; 30,06</t>
+          <t>13,37; 30,05</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,64</t>
+          <t>11,11; 21,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,5; 26,46</t>
+          <t>14,93; 26,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,28; 25,52</t>
+          <t>13,89; 27,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,82</t>
+          <t>8,34; 17,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,93; 23,15</t>
+          <t>11,8; 22,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 25,77</t>
+          <t>14,11; 26,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,79</t>
+          <t>10,69; 17,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,18</t>
+          <t>15,09; 22,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,63</t>
+          <t>14,93; 23,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>23,78%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>6,44; 28,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>11,71; 42,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>13,41; 40,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,27</t>
+          <t>8,67; 31,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,89</t>
+          <t>8,77; 37,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,78; 85,03</t>
+          <t>9,07; 45,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,13</t>
+          <t>9,6; 24,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,15</t>
+          <t>11,86; 32,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 59,78</t>
+          <t>14,62; 36,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>18,53%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 32,96</t>
+          <t>9,96; 30,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 40,94</t>
+          <t>13,36; 35,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 49,84</t>
+          <t>8,55; 52,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 29,88</t>
+          <t>4,91; 22,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 40,89</t>
+          <t>13,91; 36,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 32,34</t>
+          <t>8,15; 23,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 26,12</t>
+          <t>9,22; 22,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 34,72</t>
+          <t>16,33; 32,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 34,66</t>
+          <t>11,55; 33,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 21,75</t>
+          <t>1,81; 15,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 38,11</t>
+          <t>1,92; 18,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 23,89</t>
+          <t>4,57; 25,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 30,23</t>
+          <t>3,47; 19,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 35,63</t>
+          <t>8,3; 31,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 36,5</t>
+          <t>7,52; 35,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 22,64</t>
+          <t>3,6; 13,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 32,48</t>
+          <t>6,85; 21,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 24,12</t>
+          <t>7,52; 25,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 20,29</t>
+          <t>3,16; 18,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 32,18</t>
+          <t>5,36; 25,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 41,4</t>
+          <t>7,85; 29,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 15,65</t>
+          <t>11,93; 31,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 18,36</t>
+          <t>7,46; 31,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 30,63</t>
+          <t>14,59; 38,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,6</t>
+          <t>9,27; 22,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 21,12</t>
+          <t>8,44; 23,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 29,47</t>
+          <t>13,24; 29,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,75; 32,29</t>
+          <t>8,16; 16,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 31,21</t>
+          <t>11,59; 22,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 39,65</t>
+          <t>10,46; 27,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 18,56</t>
+          <t>10,93; 20,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 25,42</t>
+          <t>14,75; 26,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 29,79</t>
+          <t>13,19; 25,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 22,63</t>
+          <t>10,65; 17,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 23,75</t>
+          <t>14,93; 22,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,37; 30,05</t>
+          <t>13,66; 24,32</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,19%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>20,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>18,63%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 21,09</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>14,93; 26,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>13,89; 27,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>8,34; 17,46</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>11,8; 22,73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14,11; 26,39</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,69; 17,74</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15,09; 22,73</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>14,93; 23,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
